--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/UTAH_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/UTAH_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1218"/>
+  <dimension ref="A1:D1212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C14">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C31">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C37">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C53">
@@ -1413,7 +1413,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C79">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C90">
@@ -1582,7 +1582,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C92">
@@ -1816,7 +1816,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C110">
@@ -1829,7 +1829,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C111">
@@ -1920,7 +1920,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C118">
@@ -2164,7 +2164,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C136">
@@ -2190,7 +2190,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2247,7 +2247,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C142">
@@ -2590,7 +2590,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C168">
@@ -2629,7 +2629,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C171">
@@ -2694,7 +2694,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C176">
@@ -2707,7 +2707,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C177">
@@ -2798,12 +2798,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C184">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C187">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C188">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C193">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C197">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C204">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C207">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C215">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C225">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C226">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C236">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C245">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C250">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C251">
@@ -3687,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C252">
@@ -3700,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C253">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C263">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C264">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C269">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C273">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C281">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C285">
@@ -4147,7 +4147,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C287">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C289">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C290">
@@ -4212,7 +4212,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C292">
@@ -4264,7 +4264,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C296">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C301">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C303">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C307">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C310">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C313">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C314">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C316">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C321">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C322">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C325">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C326">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C331">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C332">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C334">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C336">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C339">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C352">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C354">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C356">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C360">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C361">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C372">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C375">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C376">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C382">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C386">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C389">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C392">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C393">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C395">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C396">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C398">
@@ -5626,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C400">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C403">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C405">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C407">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C413">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C414">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C415">
@@ -5860,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C418">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C422">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C423">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C427">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C430">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C432">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C438">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C444">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C452">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C459">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C460">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C461">
@@ -6476,7 +6476,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C465">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C470">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C475">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C480">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C481">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C483">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C485">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C486">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C489">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C490">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C496">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C497">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C500">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C501">
@@ -7074,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C511">
@@ -7087,7 +7087,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C512">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C513">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C518">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C519">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C522">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C523">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C524">
@@ -7547,7 +7547,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C547">
@@ -7573,7 +7573,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C549">
@@ -8314,7 +8314,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C606">
@@ -8605,7 +8605,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C628">
@@ -8696,7 +8696,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C635">
@@ -8735,7 +8735,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C638">
@@ -8800,7 +8800,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C643">
@@ -8922,7 +8922,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C652">
@@ -8935,7 +8935,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C653">
@@ -8961,7 +8961,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C655">
@@ -9039,7 +9039,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C661">
@@ -9187,7 +9187,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C672">
@@ -9213,7 +9213,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C674">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C676">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C679">
@@ -9296,7 +9296,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C680">
@@ -9322,7 +9322,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C682">
@@ -9335,7 +9335,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C683">
@@ -9348,7 +9348,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C684">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C685">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C686">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C689">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C692">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C693">
@@ -9478,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C694">
@@ -9491,7 +9491,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C695">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C696">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C710">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C719">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C722">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C727">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C749">
@@ -10375,7 +10375,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C763">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C768">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C776">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C792">
@@ -10765,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C793">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C794">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C795">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C796">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C797">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C798">
@@ -11238,7 +11238,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C829">
@@ -11251,7 +11251,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C830">
@@ -11342,7 +11342,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C837">
@@ -11407,7 +11407,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C842">
@@ -11498,7 +11498,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C849">
@@ -11563,7 +11563,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C854">
@@ -11641,7 +11641,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C860">
@@ -11745,7 +11745,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C868">
@@ -11758,7 +11758,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C869">
@@ -11797,7 +11797,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C872">
@@ -11875,7 +11875,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C878">
@@ -11901,7 +11901,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C880">
@@ -11927,7 +11927,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C882">
@@ -11992,7 +11992,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C887">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C909">
@@ -12296,7 +12296,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C910">
@@ -12361,7 +12361,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C915">
@@ -12374,7 +12374,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C916">
@@ -12387,7 +12387,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C917">
@@ -12426,7 +12426,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C920">
@@ -12579,7 +12579,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C931">
@@ -12670,7 +12670,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C938">
@@ -12761,7 +12761,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C945">
@@ -12774,7 +12774,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C946">
@@ -12787,7 +12787,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C947">
@@ -13356,7 +13356,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C990">
@@ -13434,7 +13434,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C996">
@@ -13569,7 +13569,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1006">
@@ -13865,7 +13865,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1028">
@@ -13904,7 +13904,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1031">
@@ -13917,7 +13917,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1032">
@@ -13956,7 +13956,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1035">
@@ -14008,7 +14008,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1039">
@@ -14034,7 +14034,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1041">
@@ -14221,7 +14221,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1055">
@@ -14260,7 +14260,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1058">
@@ -14325,7 +14325,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1063">
@@ -14351,7 +14351,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1065">
@@ -14481,7 +14481,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1075">
@@ -14494,7 +14494,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1076">
@@ -14624,7 +14624,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1086">
@@ -14650,7 +14650,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1088">
@@ -14663,7 +14663,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1089">
@@ -14767,7 +14767,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1097">
@@ -14806,7 +14806,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1100">
@@ -14858,7 +14858,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1104">
@@ -14884,7 +14884,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1106">
@@ -14936,7 +14936,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1110">
@@ -15040,7 +15040,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1118">
@@ -15053,7 +15053,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1119">
@@ -15092,7 +15092,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1122">
@@ -15765,7 +15765,7 @@
     <row r="1173">
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1173">
@@ -15934,7 +15934,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1186">
@@ -15960,7 +15960,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1188">
@@ -15973,7 +15973,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1189">
@@ -15986,7 +15986,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1190">
@@ -16129,7 +16129,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1201">
@@ -16142,7 +16142,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1202">
@@ -16155,7 +16155,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1203">
@@ -16194,7 +16194,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1206">
@@ -16280,41 +16280,6 @@
       </c>
       <c r="D1212">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
